--- a/public/upload/report/SURAT PENGAJUAN KENAIKAN PANGKAT BIRO ADMINISTRASI KESRA DAN KEMASYARAKATAN.xlsx
+++ b/public/upload/report/SURAT PENGAJUAN KENAIKAN PANGKAT BIRO ADMINISTRASI KESRA DAN KEMASYARAKATAN.xlsx
@@ -26,7 +26,7 @@
     <t>Jl. Haluoleo Anduonohu Kompleks Bumi Praja Kantor Gubernur, Kendari 93232</t>
   </si>
   <si>
-    <t>Kendari,  17 Juli 2023</t>
+    <t>Kendari,  19 Agustus 2023</t>
   </si>
   <si>
     <t>Kepada</t>
@@ -68,7 +68,7 @@
     <t>Daftar Usulan Kenaikan Pangkat periode : Oktober 2023</t>
   </si>
   <si>
-    <t>a.n SULISTIANI  dan Kawan-kawan</t>
+    <t>a.n DARLIAN dan Kawan-kawan</t>
   </si>
   <si>
     <t>Berkas usul terdiri dari :</t>
